--- a/data/outputs/OR_altmetric/51.xlsx
+++ b/data/outputs/OR_altmetric/51.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE36"/>
+  <dimension ref="A1:CF36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1019,6 +1024,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1266,6 +1274,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1511,6 +1522,9 @@
       <c r="CE4" t="n">
         <v>0</v>
       </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1760,6 +1774,9 @@
       <c r="CE5" t="n">
         <v>0</v>
       </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2003,6 +2020,9 @@
         <v>0</v>
       </c>
       <c r="CE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2242,6 +2262,9 @@
       <c r="CE7" t="n">
         <v>0</v>
       </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2495,6 +2518,9 @@
       <c r="CE8" t="n">
         <v>0</v>
       </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2746,6 +2772,9 @@
       <c r="CE9" t="n">
         <v>0</v>
       </c>
+      <c r="CF9" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2991,6 +3020,9 @@
       <c r="CE10" t="n">
         <v>0</v>
       </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3232,6 +3264,9 @@
       <c r="CE11" t="n">
         <v>0</v>
       </c>
+      <c r="CF11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3477,6 +3512,9 @@
       <c r="CE12" t="n">
         <v>0</v>
       </c>
+      <c r="CF12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3722,6 +3760,9 @@
       <c r="CE13" t="n">
         <v>0</v>
       </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3971,6 +4012,9 @@
       <c r="CE14" t="n">
         <v>0</v>
       </c>
+      <c r="CF14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4220,6 +4264,9 @@
       <c r="CE15" t="n">
         <v>0</v>
       </c>
+      <c r="CF15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4467,6 +4514,9 @@
       <c r="CE16" t="n">
         <v>0</v>
       </c>
+      <c r="CF16" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4713,6 +4763,9 @@
       </c>
       <c r="CE17" t="n">
         <v>0</v>
+      </c>
+      <c r="CF17" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="18">
@@ -4947,6 +5000,9 @@
       <c r="CE18" t="n">
         <v>0</v>
       </c>
+      <c r="CF18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5184,6 +5240,9 @@
       <c r="CE19" t="n">
         <v>0</v>
       </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5429,6 +5488,9 @@
       <c r="CE20" t="n">
         <v>0</v>
       </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5674,6 +5736,9 @@
       <c r="CE21" t="n">
         <v>0</v>
       </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5909,6 +5974,9 @@
         <v>0</v>
       </c>
       <c r="CE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6144,6 +6212,9 @@
       <c r="CE23" t="n">
         <v>0</v>
       </c>
+      <c r="CF23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6389,6 +6460,9 @@
       <c r="CE24" t="n">
         <v>0</v>
       </c>
+      <c r="CF24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6626,6 +6700,9 @@
       <c r="CE25" t="n">
         <v>0</v>
       </c>
+      <c r="CF25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6873,6 +6950,9 @@
       <c r="CE26" t="n">
         <v>0</v>
       </c>
+      <c r="CF26" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7110,6 +7190,9 @@
       <c r="CE27" t="n">
         <v>0</v>
       </c>
+      <c r="CF27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7347,6 +7430,9 @@
       <c r="CE28" t="n">
         <v>0</v>
       </c>
+      <c r="CF28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7592,6 +7678,9 @@
       <c r="CE29" t="n">
         <v>0</v>
       </c>
+      <c r="CF29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7829,6 +7918,9 @@
       <c r="CE30" t="n">
         <v>0</v>
       </c>
+      <c r="CF30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8074,6 +8166,9 @@
       <c r="CE31" t="n">
         <v>0</v>
       </c>
+      <c r="CF31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8317,6 +8412,9 @@
         <v>0</v>
       </c>
       <c r="CE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8556,6 +8654,9 @@
       <c r="CE33" t="n">
         <v>0</v>
       </c>
+      <c r="CF33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -8789,6 +8890,9 @@
       <c r="CE34" t="n">
         <v>0</v>
       </c>
+      <c r="CF34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9035,6 +9139,9 @@
       </c>
       <c r="CE35" t="n">
         <v>0</v>
+      </c>
+      <c r="CF35" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="36">
@@ -9283,6 +9390,9 @@
       <c r="CE36" t="n">
         <v>0</v>
       </c>
+      <c r="CF36" t="n">
+        <v>0.5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
